--- a/数据整理/stocks/A股/创业板/300059-东方财富.xlsx
+++ b/数据整理/stocks/A股/创业板/300059-东方财富.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -104240,4 +104241,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D2" t="n">
+        <v>558.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>725</v>
+      </c>
+      <c r="D3" t="n">
+        <v>447.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>359</v>
+      </c>
+      <c r="D4" t="n">
+        <v>249.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>550</v>
+      </c>
+      <c r="D5" t="n">
+        <v>325.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>